--- a/biology/Neurosciences/Non-conformité_de_genre_dans_l'enfance/Non-conformité_de_genre_dans_l'enfance.xlsx
+++ b/biology/Neurosciences/Non-conformité_de_genre_dans_l'enfance/Non-conformité_de_genre_dans_l'enfance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Non-conformit%C3%A9_de_genre_dans_l%27enfance</t>
+          <t>Non-conformité_de_genre_dans_l'enfance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La non-conformité de genre dans l'enfance est un phénomène au cours duquel les enfants pré-pubères ne sont pas conformes aux attentes de genre sociologiques ou psychologiques, ou qu'ils s'identifient comme étant de l'autre sexe[1]. Le rapport annuel sur les droits fondamentaux dans l'Union européenne adopté en 2018 encourage les Etats membres à « dépathologis[er les]  identités transgenres » et à « empêcher que la variance de genre dans l’enfance ne devienne une nouvelle pathologie dans la classification internationale des maladies »[2].
-Un comportement typique chez ces personnes peut inclure une propension au travestissement (mais non limité à celui-ci), le refus de prendre part à des activités traditionnellement adaptées à leur genre assigné à la naissance, et le choix exclusif de camarades de jeux du sexe opposé. L'« atypicité » de genre peut aussi se présenter à travers le jeu, par exemple des enfants qui joueraient ou qui participeraient à des scénarios de jeux généralement associés au genre opposé ; par exemple, un jeune garçon jouant avec des poupées, et une fille jouant avec des camions. La volonté d'être nommé au féminin, assurer que son sexe n'est pas celui de naissance, pour les petits garçons gnc jouer à la mariée et imposer son désir aux autres petits garçons quand ils ne l'ont pas encore rejeté. Tout cela n'est bien sûr considéré comme « atypique » que dans la mesure où l'on attend des enfants qu'ils se conforment à une norme sexuée, en montrant de l'intérêt pour les jouets sexués qui correspondent à leur sexe assigné[3],[4]. Plusieurs études ont corrélé une non-conformité de genre de l'enfance avec une éventuelle homosexualité ; dans ces études, une majorité de personnes qui s'identifient gays ou lesbiennes s'auto-identifiaient de genre non conforme quand ils ou elles étaient enfants[5],[6],[7].
-La communauté thérapeutique est actuellement divisée sur la réponse appropriée à proposer aux enfants de genre non-conforme. Des traitements visant à bloquer la puberté, permettant de laisser le temps aux enfants de se déterminer, sont proposés aux Pays-Bas, États-Unis, Royaume-Uni ou Canada, mais encore rarement en France (en 2015)[8]. La non-conformité de genre n'est pas une maladie mentale mais une variation "maladaptive" des comportements sexués évolués, elle n'est ni engendrée par une mauvaise éducation ou par une faute morale mais par de nombreux phénomènes lors de l'embryogenèse et son rapport aux androgènes prénataux[9]. Au delà de la préférence de jouet atypique, la décision d'une prise en charge médicale de l'enfant et de l'adolescent dysphorique est surtout concentré sur sa détresse (dysphorie physiologique, génitale, sociale etc.) plutôt qu'une tentative de rendre normaux des enfants homosexuels comme nous pouvons l'entendre dans certains mouvements terf identitaires[10].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La non-conformité de genre dans l'enfance est un phénomène au cours duquel les enfants pré-pubères ne sont pas conformes aux attentes de genre sociologiques ou psychologiques, ou qu'ils s'identifient comme étant de l'autre sexe. Le rapport annuel sur les droits fondamentaux dans l'Union européenne adopté en 2018 encourage les Etats membres à « dépathologis[er les]  identités transgenres » et à « empêcher que la variance de genre dans l’enfance ne devienne une nouvelle pathologie dans la classification internationale des maladies ».
+Un comportement typique chez ces personnes peut inclure une propension au travestissement (mais non limité à celui-ci), le refus de prendre part à des activités traditionnellement adaptées à leur genre assigné à la naissance, et le choix exclusif de camarades de jeux du sexe opposé. L'« atypicité » de genre peut aussi se présenter à travers le jeu, par exemple des enfants qui joueraient ou qui participeraient à des scénarios de jeux généralement associés au genre opposé ; par exemple, un jeune garçon jouant avec des poupées, et une fille jouant avec des camions. La volonté d'être nommé au féminin, assurer que son sexe n'est pas celui de naissance, pour les petits garçons gnc jouer à la mariée et imposer son désir aux autres petits garçons quand ils ne l'ont pas encore rejeté. Tout cela n'est bien sûr considéré comme « atypique » que dans la mesure où l'on attend des enfants qu'ils se conforment à une norme sexuée, en montrant de l'intérêt pour les jouets sexués qui correspondent à leur sexe assigné,. Plusieurs études ont corrélé une non-conformité de genre de l'enfance avec une éventuelle homosexualité ; dans ces études, une majorité de personnes qui s'identifient gays ou lesbiennes s'auto-identifiaient de genre non conforme quand ils ou elles étaient enfants.
+La communauté thérapeutique est actuellement divisée sur la réponse appropriée à proposer aux enfants de genre non-conforme. Des traitements visant à bloquer la puberté, permettant de laisser le temps aux enfants de se déterminer, sont proposés aux Pays-Bas, États-Unis, Royaume-Uni ou Canada, mais encore rarement en France (en 2015). La non-conformité de genre n'est pas une maladie mentale mais une variation "maladaptive" des comportements sexués évolués, elle n'est ni engendrée par une mauvaise éducation ou par une faute morale mais par de nombreux phénomènes lors de l'embryogenèse et son rapport aux androgènes prénataux. Au delà de la préférence de jouet atypique, la décision d'une prise en charge médicale de l'enfant et de l'adolescent dysphorique est surtout concentré sur sa détresse (dysphorie physiologique, génitale, sociale etc.) plutôt qu'une tentative de rendre normaux des enfants homosexuels comme nous pouvons l'entendre dans certains mouvements terf identitaires.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Non-conformit%C3%A9_de_genre_dans_l%27enfance</t>
+          <t>Non-conformité_de_genre_dans_l'enfance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Manifestations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La non-conformité de genre chez les enfants peut prendre de nombreuses formes, reflétant différentes façons dont un enfant est lié à son sentiment de genre :
 Préférence pour les vêtements du genre opposé
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Non-conformit%C3%A9_de_genre_dans_l%27enfance</t>
+          <t>Non-conformité_de_genre_dans_l'enfance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,13 +563,15 @@
           <t>Théories sociales et développementales du genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le concept de non-conformité de genre dans l'enfance suppose qu'il existe une bonne façon d'être une fille ou un garçon. Il y a un certain nombre de perspectives sociales et développementales qui explorent la façon dont les enfants viennent à s'identifier à un genre en particulier et à s'engager dans des activités qui sont associés à ce rôle de genre. De même on peut questionner la notion de genre pour parler de ces comportements, autrefois nommés comportements sexués spécifiques (sex-typed behaviours) le langage peine à bien décrire la réalité des individus gnc.
 Les théories psychanalytiques sur le genre soulignent que les enfants commencent à s'identifier à leur parent, et que les filles ont tendance à s'identifier à leur mère et les garçons à leur père. L'identification est souvent associée à la période où l'enfant réalise qu'il ne partage pas les mêmes organes génitaux avec les deux parents. Selon les théories de Freud, cette découverte ouvre la porte à l'envie de pénis chez les filles et l'angoisse de castration chez les garçons. Bien qu'il n'y ait pas beaucoup de preuves scientifiques pour soutenir Freud, ses théories ont suscité de nouvelles conversations autour de la sexualité et du genre.
 La théorie de l'apprentissage social met l'accent sur les récompenses et les punitions que les enfants reçoivent pour les comportements appropriés ou non au sexe. L'une des critiques de la théorie de l'apprentissage social est de supposer que les enfants sont passifs, plutôt que des participants actifs à leur environnement social.
 La théorie du développement cognitif soutient que les enfants sont actifs dans la définition du genre et se comportent de manière à refléter leur perception des rôles de genre. Les enfants sont à la recherche de régularités et de consistance dans leur environnement, et la recherche de la cohérence cognitive motive les enfants à se comporter d'une manière qui soit en harmonie avec les constructions sociétales du genre.
-La théorie du schéma du genre est un modèle hybride qui combine l'apprentissage social et la théorie du développement cognitif. Daryl J. Bem fait valoir que les enfants ont un état cognitif adapté à en apprendre sur eux-mêmes et sur leur environnement. Ils construisent des schémas pour les aider à explorer leur monde social, et ces schémas forment un plus grand réseau d'associations et de croyances à propos du genre et des rôles de genre[11].
+La théorie du schéma du genre est un modèle hybride qui combine l'apprentissage social et la théorie du développement cognitif. Daryl J. Bem fait valoir que les enfants ont un état cognitif adapté à en apprendre sur eux-mêmes et sur leur environnement. Ils construisent des schémas pour les aider à explorer leur monde social, et ces schémas forment un plus grand réseau d'associations et de croyances à propos du genre et des rôles de genre.
 </t>
         </is>
       </c>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Non-conformit%C3%A9_de_genre_dans_l%27enfance</t>
+          <t>Non-conformité_de_genre_dans_l'enfance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,10 +602,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Études observationnelles
-Pour réaliser ces études, il est nécessaire de sélectionner des enfants de genre non conforme et pour lesquels on observe des jeux atypiques, en incluant également un groupe contrôle (des enfants considérés comme étant d'un genre typique) et un groupe expérimental où les enfants sont choisis en fonction de leur niveau sur l'échelle d'« atypicité »[12]. En d'autres termes, les filles assignées qui sont classées masculines par rapport à d'autres filles, et les garçons assignés qui sont classés féminins, par rapport à d'autres garçons. Ces études ont également généralement comparé ces enfants atypiques à leurs frères et sœurs, en essayant de créer un type de contrôle génétique et environnemental[12],[13]. Dans une étude réalisée par Kenneth Zucker, il a été déterminé que les enfants de genre non conforme qui jouaient avec des jouets atypiques le faisaient de manière significativement plus longue que leurs homologues du groupe contrôle (genre typique). En outre, Zucker et son équipe ont senti qu'ils pouvaient conclure que l'identité de genre est déterminée de façon significative dans l'enfance[13]. Une autre étude a convenu que l'« atypicité » dans l'enfance semble être un facteur prédictif de la poursuite, ou non, du genre atypique à l'âge adulte. L'hyperplasie congénitale des surrénales est un trouble qui se produit lorsque les enfants sont exposés à différentes androgènes ou hormones sexuelles[14] Ces enfants, considérés comme étant de genre atypique, ont exprimé un intérêt atypique important pour les activités dans lesquelles ils s'engageaient. Cependant, il n'y a pas eu de différence significative concernant la préférence genrée de leurs partenaires de jeux[15]. A l'Instar d'autres études, les enfants de genre atypique ont été comparés à leurs parents de genre typique. Cependant, cette étude n'a pas inclus les enfants ayant une composante génétique qui les rend physiquement atypiques.
-Études rétrospectives
-L'autre type d'étude utilisé pour examiner cette question est l'étude rétrospective. De nombreuses études interrogent des hommes qui s'identifient gay et leur demandent de se souvenir de leurs préférences de jeux durant leur enfance. Une chose très intéressante est le fait qu'elles semblent être un bon indicateur de leur comportement une fois devenus adultes. Les informations concernant les femmes tendent à être moins significatives, avec des difficultés à tirer des conclusions, et certaines études ne peuvent carrément pas être conduites[16]. Les études rétrospectives sont largement cohérentes avec les études mentionnées précédemment : elles concluent que la non conformité de genre dans l'enfance est un prédicateur significatif de l'orientation sexuelle homosexuelle. Un chercheur avait réalisé une étude rétrospective et avait conclu que bien que ce type d'étude était très perspicace, la méthodologie était plus difficile à mettre en place. Bien que ces études aient été très utiles pour déterminer combien d'hommes homosexuels étaient d'un genre atypique dans leur enfance, ce chercheur pense qu'il serait préférable de mieux comprendre pourquoi il y a un lien, plutôt que de simplement déterminer qu'il semble y avoir un lien[17]. Une autre étude rétrospective conduite par Michael Bailey qui n'interrogeait pas seulement les individus, mais qui récoltait également le témoignage de leur mère, a trouvé qu'il n'y avait pas de corrélation entre les points de vue des sujets et ceux de leur mère[18]. Il existait encore une corrélation entre le genre non conforme auto-rapporté des individus et leur homosexualité, mais les réponses des mères n'ont pas mis en évidence des statistiques significatives.
+          <t>Études observationnelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour réaliser ces études, il est nécessaire de sélectionner des enfants de genre non conforme et pour lesquels on observe des jeux atypiques, en incluant également un groupe contrôle (des enfants considérés comme étant d'un genre typique) et un groupe expérimental où les enfants sont choisis en fonction de leur niveau sur l'échelle d'« atypicité ». En d'autres termes, les filles assignées qui sont classées masculines par rapport à d'autres filles, et les garçons assignés qui sont classés féminins, par rapport à d'autres garçons. Ces études ont également généralement comparé ces enfants atypiques à leurs frères et sœurs, en essayant de créer un type de contrôle génétique et environnemental,. Dans une étude réalisée par Kenneth Zucker, il a été déterminé que les enfants de genre non conforme qui jouaient avec des jouets atypiques le faisaient de manière significativement plus longue que leurs homologues du groupe contrôle (genre typique). En outre, Zucker et son équipe ont senti qu'ils pouvaient conclure que l'identité de genre est déterminée de façon significative dans l'enfance. Une autre étude a convenu que l'« atypicité » dans l'enfance semble être un facteur prédictif de la poursuite, ou non, du genre atypique à l'âge adulte. L'hyperplasie congénitale des surrénales est un trouble qui se produit lorsque les enfants sont exposés à différentes androgènes ou hormones sexuelles Ces enfants, considérés comme étant de genre atypique, ont exprimé un intérêt atypique important pour les activités dans lesquelles ils s'engageaient. Cependant, il n'y a pas eu de différence significative concernant la préférence genrée de leurs partenaires de jeux. A l'Instar d'autres études, les enfants de genre atypique ont été comparés à leurs parents de genre typique. Cependant, cette étude n'a pas inclus les enfants ayant une composante génétique qui les rend physiquement atypiques.
 </t>
         </is>
       </c>
@@ -600,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Non-conformit%C3%A9_de_genre_dans_l%27enfance</t>
+          <t>Non-conformité_de_genre_dans_l'enfance</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,12 +634,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Anomalies chromosomiques</t>
+          <t>Études</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chez l'homme, la différenciation sexuelle est déterminée par les chromosomes X et Y et en particulier par le gène SRY du chromosome Y. Cependant, des troubles du développement de l'embryon comme des anomalies génétiques peuvent conduire à des phénotypes non correspondants. Il est ainsi possible qu'un individu présentant des chromosomes XX développe un phénotype anatomiquement mais également en termes de physiologie et de psychologie masculin. Inversement un individu peut présenter la combinaison XY et être surtout féminin. Le gène SRY peut apparaître sur le chromosome X, conduisant à un embryon XX qui développe l'anatomie masculine et qui est identifié à la naissance comme un garçon. Le gène SRY peut être manquant ou dysfonctionnel, conduisant à un embryon XY qui ne parvient pas à développer l'anatomie masculine et qui est identifié à la naissance comme une fille. Des variations génétiques peuvent également survenir sans lien avec le gène SRY, comme le syndrome complet d'insensibilité aux androgènes[19].
+          <t>Études rétrospectives</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'autre type d'étude utilisé pour examiner cette question est l'étude rétrospective. De nombreuses études interrogent des hommes qui s'identifient gay et leur demandent de se souvenir de leurs préférences de jeux durant leur enfance. Une chose très intéressante est le fait qu'elles semblent être un bon indicateur de leur comportement une fois devenus adultes. Les informations concernant les femmes tendent à être moins significatives, avec des difficultés à tirer des conclusions, et certaines études ne peuvent carrément pas être conduites. Les études rétrospectives sont largement cohérentes avec les études mentionnées précédemment : elles concluent que la non conformité de genre dans l'enfance est un prédicateur significatif de l'orientation sexuelle homosexuelle. Un chercheur avait réalisé une étude rétrospective et avait conclu que bien que ce type d'étude était très perspicace, la méthodologie était plus difficile à mettre en place. Bien que ces études aient été très utiles pour déterminer combien d'hommes homosexuels étaient d'un genre atypique dans leur enfance, ce chercheur pense qu'il serait préférable de mieux comprendre pourquoi il y a un lien, plutôt que de simplement déterminer qu'il semble y avoir un lien. Une autre étude rétrospective conduite par Michael Bailey qui n'interrogeait pas seulement les individus, mais qui récoltait également le témoignage de leur mère, a trouvé qu'il n'y avait pas de corrélation entre les points de vue des sujets et ceux de leur mère. Il existait encore une corrélation entre le genre non conforme auto-rapporté des individus et leur homosexualité, mais les réponses des mères n'ont pas mis en évidence des statistiques significatives.
 </t>
         </is>
       </c>
@@ -631,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Non-conformit%C3%A9_de_genre_dans_l%27enfance</t>
+          <t>Non-conformité_de_genre_dans_l'enfance</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,16 +671,86 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Anomalies chromosomiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'homme, la différenciation sexuelle est déterminée par les chromosomes X et Y et en particulier par le gène SRY du chromosome Y. Cependant, des troubles du développement de l'embryon comme des anomalies génétiques peuvent conduire à des phénotypes non correspondants. Il est ainsi possible qu'un individu présentant des chromosomes XX développe un phénotype anatomiquement mais également en termes de physiologie et de psychologie masculin. Inversement un individu peut présenter la combinaison XY et être surtout féminin. Le gène SRY peut apparaître sur le chromosome X, conduisant à un embryon XX qui développe l'anatomie masculine et qui est identifié à la naissance comme un garçon. Le gène SRY peut être manquant ou dysfonctionnel, conduisant à un embryon XY qui ne parvient pas à développer l'anatomie masculine et qui est identifié à la naissance comme une fille. Des variations génétiques peuvent également survenir sans lien avec le gène SRY, comme le syndrome complet d'insensibilité aux androgènes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Non-conformité_de_genre_dans_l'enfance</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Non-conformit%C3%A9_de_genre_dans_l%27enfance</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Influence des androgènes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fœtus sont exposés à des androgènes prénatales dès 8 semaines de développement. Les fœtus mâles sont exposés à des niveaux beaucoup plus élevés d'androgènes que les fœtus féminins. Il a été constaté que les préférences des jouets, les camarades de jeux, et les styles de jeu variaient selon l'exposition de l'enfant aux androgènes. Quel que soit le sexe assigné de l'enfant, l'augmentation de l'exposition à l'androgène est associée à des comportements plus typiquement masculins, alors que la diminution de l'exposition aux androgènes était associée à des comportements plus typiquement féminins (voir transfert de testostérone prénatale).
-Études de la préférence des jouets
-Les jouets pour les filles ont tendance à être ronds et roses, tandis que les jouets pour garçons ont tendance à être anguleux et bleus[20]. Dans une étude des préférences de jouets sur des nourrissons de 12 à 24 mois, les garçons passaient plus de temps à regarder les voitures que les filles, et les filles passaient plus de temps à regarder les poupées que les mâles. Aucune préférence pour la couleur n'avait été trouvée[21],[22]. Les études animales ont apporté un appui supplémentaire pour le genre biologiquement déterminé concernant les préférences de jouets. Dans une étude sur des singes rhésus, quand un choix doit se faire entre une peluche ou des jouets à roues, le singe femelle est attiré vers les jouets en peluche, tandis que les mâles préfèrent les jouets avec des roues. Ces résultats suggèrent que les préférences genrées pour les jouets peuvent se produire sans les processus de socialisation que l'on retrouve chez l'homme[23]. Les singes rhésus femelles ont également tendance à s'engager dans plus d'activités liées au jeu de maternage, tandis que les mâles ont tendance à s'engager dans des jeux plus physiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Non-conformité_de_genre_dans_l'enfance</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Non-conformit%C3%A9_de_genre_dans_l%27enfance</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Influence des androgènes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Études de la préférence des jouets</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jouets pour les filles ont tendance à être ronds et roses, tandis que les jouets pour garçons ont tendance à être anguleux et bleus. Dans une étude des préférences de jouets sur des nourrissons de 12 à 24 mois, les garçons passaient plus de temps à regarder les voitures que les filles, et les filles passaient plus de temps à regarder les poupées que les mâles. Aucune préférence pour la couleur n'avait été trouvée,. Les études animales ont apporté un appui supplémentaire pour le genre biologiquement déterminé concernant les préférences de jouets. Dans une étude sur des singes rhésus, quand un choix doit se faire entre une peluche ou des jouets à roues, le singe femelle est attiré vers les jouets en peluche, tandis que les mâles préfèrent les jouets avec des roues. Ces résultats suggèrent que les préférences genrées pour les jouets peuvent se produire sans les processus de socialisation que l'on retrouve chez l'homme. Les singes rhésus femelles ont également tendance à s'engager dans plus d'activités liées au jeu de maternage, tandis que les mâles ont tendance à s'engager dans des jeux plus physiques.
 Les filles avec hyperplasie congénitale des surrénales (HCS) ont de fortes concentrations sanguines de testostérone. Dans les études de préférence de jouets, ces filles montrent un intérêt important pour les jouets masculins, comme les camions et les balles. Dans l'ensemble, leurs habitudes et leurs préférences se tournaient davantage vers des jeux typiquement masculins plutôt que typiquement féminins. Même chez les enfants exposés à une gamme normale d'androgènes prénatales, l'augmentation de testostérone a été associée à une augmentation de la préférence pour les jouets typiquement masculins, et une diminution prénatale à la testostérone a été associée à un plus grand intérêt pour les jouets typiquement féminins.
-Dans l'ensemble, le degré d'exposition aux androgènes pendant les périodes prénatales et postnatales peuvent orienter les processus cognitifs, qui seront encore renforcés par le processus de socialisation. Les niveaux les plus élevés d'androgènes au cours du développement pourraient susciter une plus grande attirance pour les voitures et les balles, tandis que la baisse des niveaux d'androgènes provoquent une préférence pour les poupées et les activités de soins[22].
+Dans l'ensemble, le degré d'exposition aux androgènes pendant les périodes prénatales et postnatales peuvent orienter les processus cognitifs, qui seront encore renforcés par le processus de socialisation. Les niveaux les plus élevés d'androgènes au cours du développement pourraient susciter une plus grande attirance pour les voitures et les balles, tandis que la baisse des niveaux d'androgènes provoquent une préférence pour les poupées et les activités de soins.
 </t>
         </is>
       </c>
